--- a/Excel/StartConfig/Localhost/StartSceneConfig@s.xlsx
+++ b/Excel/StartConfig/Localhost/StartSceneConfig@s.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10514"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Source\ET\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/opp/UnityProject/__Sample/ET-EUI/Excel/StartConfig/Localhost/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{078AD0C1-2703-4F0D-98EC-E75EF8C3D36C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4950CD7B-B1E5-DD48-A1EB-1A264C3D214E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3580" yWindow="-23980" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="StartSceneConfig" sheetId="1" r:id="rId1"/>
@@ -96,7 +96,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -108,6 +108,7 @@
       <sz val="9"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -115,6 +116,7 @@
       <sz val="9"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -472,21 +474,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C3:H11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView topLeftCell="B1" zoomScale="217" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="21.125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="12.75" style="2" customWidth="1"/>
-    <col min="3" max="5" width="12.625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="15.375" style="3" customWidth="1"/>
-    <col min="7" max="8" width="13.125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="21.1640625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" style="2" customWidth="1"/>
+    <col min="3" max="5" width="12.6640625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="15.33203125" style="3" customWidth="1"/>
+    <col min="7" max="8" width="13.1640625" style="3" customWidth="1"/>
     <col min="9" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="3:8">
       <c r="C3" s="4" t="s">
         <v>0</v>
       </c>
@@ -506,7 +508,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="3:8">
       <c r="C4" s="4" t="s">
         <v>0</v>
       </c>
@@ -526,7 +528,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="3:8">
       <c r="C5" s="4" t="s">
         <v>11</v>
       </c>
@@ -546,7 +548,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="3:8" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="3:8" s="1" customFormat="1" ht="14.25">
       <c r="C6" s="5">
         <v>1</v>
       </c>
@@ -566,12 +568,12 @@
         <v>10002</v>
       </c>
     </row>
-    <row r="7" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="3:8">
       <c r="C7" s="3">
         <v>2</v>
       </c>
       <c r="D7" s="5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E7" s="5">
         <v>1</v>
@@ -586,12 +588,12 @@
         <v>10003</v>
       </c>
     </row>
-    <row r="8" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="3:8">
       <c r="C8" s="3">
         <v>3</v>
       </c>
       <c r="D8" s="5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E8" s="5">
         <v>1</v>
@@ -606,12 +608,12 @@
         <v>10004</v>
       </c>
     </row>
-    <row r="9" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="3:8">
       <c r="C9" s="3">
         <v>4</v>
       </c>
       <c r="D9" s="5">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E9" s="5">
         <v>1</v>
@@ -624,12 +626,12 @@
       </c>
       <c r="H9" s="5"/>
     </row>
-    <row r="10" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="3:8">
       <c r="C10" s="3">
         <v>5</v>
       </c>
       <c r="D10" s="5">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E10" s="5">
         <v>1</v>
@@ -642,12 +644,12 @@
       </c>
       <c r="H10" s="5"/>
     </row>
-    <row r="11" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="3:8">
       <c r="C11" s="3">
         <v>6</v>
       </c>
       <c r="D11" s="5">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E11" s="5">
         <v>1</v>
@@ -671,21 +673,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="C3:H6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" zoomScale="207" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="21.125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="12.75" style="2" customWidth="1"/>
-    <col min="3" max="5" width="12.625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="15.375" style="3" customWidth="1"/>
-    <col min="7" max="8" width="13.125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="21.1640625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" style="2" customWidth="1"/>
+    <col min="3" max="5" width="12.6640625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="15.33203125" style="3" customWidth="1"/>
+    <col min="7" max="8" width="13.1640625" style="3" customWidth="1"/>
     <col min="9" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="3:8">
       <c r="C3" s="4" t="s">
         <v>0</v>
       </c>
@@ -705,7 +707,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="3:8">
       <c r="C4" s="4" t="s">
         <v>0</v>
       </c>
@@ -725,7 +727,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="3:8">
       <c r="C5" s="4" t="s">
         <v>11</v>
       </c>
@@ -745,12 +747,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="3:8" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="3:8" s="1" customFormat="1" ht="14.25">
       <c r="C6" s="5">
         <v>200</v>
       </c>
       <c r="D6" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E6" s="5">
         <v>2</v>
